--- a/src/data/profiles/xlsx/bluff/profile 35-5 graph.xlsx
+++ b/src/data/profiles/xlsx/bluff/profile 35-5 graph.xlsx
@@ -18148,11 +18148,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="47886934"/>
-        <c:axId val="7742886"/>
+        <c:axId val="8290965"/>
+        <c:axId val="64596183"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="47886934"/>
+        <c:axId val="8290965"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18187,12 +18187,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="7742886"/>
+        <c:crossAx val="64596183"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="7742886"/>
+        <c:axId val="64596183"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18236,7 +18236,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="47886934"/>
+        <c:crossAx val="8290965"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
